--- a/data/df_comb_init_cads_edits.xlsx
+++ b/data/df_comb_init_cads_edits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Dissertation/Dissertation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687E729F-9865-2741-A65B-370B3DCEBBBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D8A51-11BB-4C4D-8CEC-D94521762DD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/df_comb_init_cads_edits.xlsx
+++ b/data/df_comb_init_cads_edits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Dissertation/Dissertation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D8C6F0-2D9C-8E4E-B91D-A136315279C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2CA61E-2B24-074C-88F5-B64EC6246706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="500" windowWidth="14420" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_comb_init_cads_edits" sheetId="1" r:id="rId1"/>
@@ -3470,9 +3470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC896"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A849" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D855" sqref="D855"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="A1:AC896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
